--- a/Laporan Keuangan.xlsx
+++ b/Laporan Keuangan.xlsx
@@ -151,7 +151,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
-    <t>Invoice</t>
+    <t>Laporan Keuangan</t>
   </si>
   <si>
     <t>#12566</t>
@@ -907,7 +907,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="36.276855" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12" customWidth="true" style="0"/>
     <col min="5" max="5" width="12" customWidth="true" style="0"/>
   </cols>

--- a/Laporan Keuangan.xlsx
+++ b/Laporan Keuangan.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="17">
-        <v>43322</v>
+        <v>43333</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>1</v>

--- a/Laporan Keuangan.xlsx
+++ b/Laporan Keuangan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Laporan Keuangan</t>
   </si>
@@ -47,12 +47,6 @@
     <t>No. Kwitansi</t>
   </si>
   <si>
-    <t>09-08-2018</t>
-  </si>
-  <si>
-    <t>Dari Yayasan</t>
-  </si>
-  <si>
     <t>Total Penerimaan</t>
   </si>
   <si>
@@ -84,54 +78,6 @@
   </si>
   <si>
     <t>Sub Total</t>
-  </si>
-  <si>
-    <t>Kegiatan Awal Tahun (PPDB)</t>
-  </si>
-  <si>
-    <t>Formulir Pendaftaran</t>
-  </si>
-  <si>
-    <t>03-08-2018</t>
-  </si>
-  <si>
-    <t>Annida, Toko</t>
-  </si>
-  <si>
-    <t>Ballpoint</t>
-  </si>
-  <si>
-    <t>Pcs</t>
-  </si>
-  <si>
-    <t>Sub Total Formulir Pendaftaran</t>
-  </si>
-  <si>
-    <t>Sub Total Kegiatan Awal Tahun (PPDB)</t>
-  </si>
-  <si>
-    <t>Kegiatan Proses Belajar Mengajar</t>
-  </si>
-  <si>
-    <t>ATK TU &amp; Kantor</t>
-  </si>
-  <si>
-    <t>10-08-2018</t>
-  </si>
-  <si>
-    <t>Budi Jaya, UD</t>
-  </si>
-  <si>
-    <t>Kertas A4</t>
-  </si>
-  <si>
-    <t>Rim</t>
-  </si>
-  <si>
-    <t>Sub Total ATK TU &amp; Kantor</t>
-  </si>
-  <si>
-    <t>Sub Total Kegiatan Proses Belajar Mengajar</t>
   </si>
   <si>
     <t>Total Pengeluaran</t>
@@ -187,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -199,9 +145,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="4" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -505,26 +448,26 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13.996582" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -596,8 +539,8 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="5">
-        <v>10000000</v>
+      <c r="M6" s="4">
+        <v>-100000</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -658,18 +601,10 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2">
-        <v>2</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4">
-        <v>12</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -677,13 +612,13 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="5">
-        <v>50000000</v>
-      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -695,12 +630,12 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -712,12 +647,12 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="5">
-        <v>50000000</v>
-      </c>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -729,12 +664,12 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
+      <c r="M13" s="4">
+        <v>-100000</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -746,12 +681,12 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="5">
-        <v>60000000</v>
-      </c>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -767,61 +702,59 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -834,13 +767,13 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -854,247 +787,22 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B20" s="2"/>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="2">
-        <v>11</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="5">
-        <v>222</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="5">
-        <v>10000</v>
-      </c>
-      <c r="K20" s="5">
-        <v>2220000</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="5">
-        <v>2220000</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="5">
-        <v>2220000</v>
-      </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="2">
-        <v>22</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="5">
-        <v>3</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="5">
-        <v>30000</v>
-      </c>
-      <c r="K25" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="5">
-        <v>90000</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="5">
-        <v>90000</v>
-      </c>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="5">
-        <v>2310000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="5">
-        <v>57690000</v>
+      <c r="M20" s="4">
+        <v>-100000</v>
       </c>
     </row>
   </sheetData>
@@ -1108,26 +816,17 @@
     <mergeCell ref="A7:M7"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="A11:M11"/>
-    <mergeCell ref="A12:L12"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A14:M14"/>
     <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:M16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:M17"/>
     <mergeCell ref="A18:L18"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:M28"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A30:M30"/>
-    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:L20"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Laporan Keuangan.xlsx
+++ b/Laporan Keuangan.xlsx
@@ -540,7 +540,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="4">
-        <v>-100000</v>
+        <v>-110000</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -665,7 +665,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="4">
-        <v>-100000</v>
+        <v>-110000</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -802,7 +802,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="4">
-        <v>-100000</v>
+        <v>-110000</v>
       </c>
     </row>
   </sheetData>

--- a/Laporan Keuangan.xlsx
+++ b/Laporan Keuangan.xlsx
@@ -15,11 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Laporan Keuangan</t>
   </si>
   <si>
+    <t>MINU</t>
+  </si>
+  <si>
+    <t>Sukorejo</t>
+  </si>
+  <si>
     <t>Periode Agustus 2018</t>
   </si>
   <si>
@@ -84,6 +90,21 @@
   </si>
   <si>
     <t>Saldo Akhir = (Saldo Awal + Total Penerimaan) - Total Pengeluaran</t>
+  </si>
+  <si>
+    <t>Bojonegoro, 31 Agustus 2018</t>
+  </si>
+  <si>
+    <t>Bendahara</t>
+  </si>
+  <si>
+    <t>Kepala MINU</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Director</t>
   </si>
 </sst>
 </file>
@@ -156,6 +177,41 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314325" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Logo" descr="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +504,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -471,6 +527,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
+      <c r="A1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,56 +537,25 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -539,14 +565,18 @@
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="4">
-        <v>-110000</v>
-      </c>
+      <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -556,14 +586,20 @@
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -573,21 +609,15 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+      <c r="M8" s="4">
+        <v>-110000</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -595,13 +625,13 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -616,12 +646,18 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -629,10 +665,10 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
+      <c r="L11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="2"/>
@@ -651,7 +687,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -665,7 +701,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="4">
-        <v>-110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -684,8 +720,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>12</v>
+      <c r="A15" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -698,47 +734,29 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
+      <c r="M15" s="4">
+        <v>-110000</v>
+      </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -753,23 +771,41 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
+      <c r="K18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="2"/>
@@ -788,7 +824,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -802,7 +838,62 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="4">
         <v>-110000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -810,27 +901,35 @@
   <mergeCells>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="A9:M9"/>
     <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="D11:K11"/>
     <mergeCell ref="A12:M12"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:M15"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A16:M16"/>
     <mergeCell ref="A17:M17"/>
-    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:M19"/>
     <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="G30:J30"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="9" orientation="landscape" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -839,5 +938,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Laporan Keuangan.xlsx
+++ b/Laporan Keuangan.xlsx
@@ -513,7 +513,7 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
@@ -655,12 +655,12 @@
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -909,7 +909,8 @@
     <mergeCell ref="C8:L8"/>
     <mergeCell ref="A9:M9"/>
     <mergeCell ref="A10:M10"/>
-    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:K11"/>
     <mergeCell ref="A12:M12"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A14:M14"/>

--- a/Laporan Keuangan.xlsx
+++ b/Laporan Keuangan.xlsx
@@ -188,7 +188,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="314325" cy="342900"/>
+    <xdr:ext cx="1495425" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Logo" descr="Logo"/>

--- a/Laporan Keuangan.xlsx
+++ b/Laporan Keuangan.xlsx
@@ -188,7 +188,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1495425" cy="342900"/>
+    <xdr:ext cx="314325" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Logo" descr="Logo"/>
